--- a/Question_Set2/Programming skills/React.xlsx
+++ b/Question_Set2/Programming skills/React.xlsx
@@ -16,23 +16,60 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>questions = [{'title': "Considering the code below, how many times will the ‘Hello’ message be displayed on the console? const App = (props) =&amp;gt {\n const [counter, setCounter] = useState(0)\n useEffect(\n   () =&amp;gt {\n     console.log('Hello')\n     setCounter(1)\n   },\n   [props.visible]\n )\n return &amp;ltdiv&amp;gt{counter}&amp;lt/div&amp;gt\n}", 'ques_type': 2, 'options': ['0', '1', '2', '3'], 'score': '1'}, {'title': 'Which statement describes the code below? const fetchData = () =&amp;gt new Promise((r) =&amp;gt setTimeout(() =&amp;gt r(Date.now()), 100))\n \nconst MyComponent = () =&amp;gt {\n const [result, setResult] = React.useState()\n const data = fetchData().then((value) =&amp;gt setResult(value))\n return (\n   &amp;ltdiv&amp;gt\n     {result === data.toString() ? (\n       &amp;ltdiv&amp;gthello&amp;lt/div&amp;gt\n     ) : (\n       &amp;ltdiv&amp;gtgood bye&amp;lt/div&amp;gt\n     )}\n   &amp;lt/div&amp;gt\n )\n}', 'ques_type': 2, 'options': ["A 'good bye' message will be displayed.", "A 'hello' message will be displayed.", 'The code results in a memory leak.', 'setResult is never called.'], 'score': "A 'good bye' message will be displayed."}, {'title': 'Which wrapper will hide its child component for four seconds?', 'ques_type': 2, 'options': ['const HiderWrapper = (props) =&amp;gt {\n return (\n   setTimeout(() =&amp;gt {\n     return props.children\n   }),\n   4000\n )\n}\n', 'const HiderWrapper = (props) =&amp;gt {\n const [visible, setVisible] = useState(false)\n useEffect(() =&amp;gt {\n   setInterval(() =&amp;gt {\n     setVisible(true)\n   }, 4000)\n }, [])\n if (visible) return props.body\n else return null\n}\n', 'const HiderWrapper = (props) =&amp;gt {\n const [visible, setVisible] = useState(false)\n useEffect(() =&amp;gt {\n   setTimeout(() =&amp;gt {\n     setVisible(true)\n   }, 4000)\n }, [])\n if (visible) return props.children\n else return null\n}\n', 'const HiderWrapper = () =&amp;gt {\n wait(4)\n return null\n}\n'], 'score': 'const HiderWrapper = (props) =&amp;gt {\n const [visible, setVisible] = useState(false)\n useEffect(() =&amp;gt {\n   setTimeout(() =&amp;gt {\n     setVisible(true)\n   }, 4000)\n }, [])\n if (visible) return props.children\n else return null\n}'}, {'title': 'Considering the code below, when will the MyChild component be unmounted? const MyParent = ({ value }) =&amp;gt {\n return &amp;ltdiv&amp;gt{value !== 3 &amp;amp&amp;amp &amp;ltMyChild /&amp;gt}&amp;lt/div&amp;gt\n}', 'ques_type': 2, 'options': ['When the value property is equal to 3.', 'When the value property is different from 3.', 'Never.', 'After each render of the MyParent component.'], 'score': 'When the value property is equal to 3.'}]</t>
+    <t>questions = [
+    {
+        "title": "Considering the code below, how many times will the \u2018Hello\u2019 message be displayed on the console? const App = (props) =&amp;gt {\n const [counter, setCounter] = useState(0)\n useEffect(\n   () =&amp;gt {\n     console.log('Hello')\n     setCounter(1)\n   },\n   [props.visible]\n )\n return &amp;ltdiv&amp;gt{counter}&amp;lt/div&amp;gt\n}",
+        "ques_type": 2,
+        "options": [
+            "0",
+            "1",
+            "2",
+            "3"
+        ],
+        "score": "1"
+    },
+    {
+        "title": "Which statement describes the code below? const fetchData = () =&amp;gt new Promise((r) =&amp;gt setTimeout(() =&amp;gt r(Date.now()), 100))\n \nconst MyComponent = () =&amp;gt {\n const [result, setResult] = React.useState()\n const data = fetchData().then((value) =&amp;gt setResult(value))\n return (\n   &amp;ltdiv&amp;gt\n     {result === data.toString() ? (\n       &amp;ltdiv&amp;gthello&amp;lt/div&amp;gt\n     ) : (\n       &amp;ltdiv&amp;gtgood bye&amp;lt/div&amp;gt\n     )}\n   &amp;lt/div&amp;gt\n )\n}",
+        "ques_type": 2,
+        "options": [
+            "A 'good bye' message will be displayed.",
+            "A 'hello' message will be displayed.",
+            "The code results in a memory leak.",
+            "setResult is never called."
+        ],
+        "score": "A 'good bye' message will be displayed."
+    },
+    {
+        "title": "Which wrapper will hide its child component for four seconds?",
+        "ques_type": 2,
+        "options": [
+            "const HiderWrapper = (props) =&amp;gt {\n return (\n   setTimeout(() =&amp;gt {\n     return props.children\n   }),\n   4000\n )\n}\n",
+            "const HiderWrapper = (props) =&amp;gt {\n const [visible, setVisible] = useState(false)\n useEffect(() =&amp;gt {\n   setInterval(() =&amp;gt {\n     setVisible(true)\n   }, 4000)\n }, [])\n if (visible) return props.body\n else return null\n}\n",
+            "const HiderWrapper = (props) =&amp;gt {\n const [visible, setVisible] = useState(false)\n useEffect(() =&amp;gt {\n   setTimeout(() =&amp;gt {\n     setVisible(true)\n   }, 4000)\n }, [])\n if (visible) return props.children\n else return null\n}\n",
+            "const HiderWrapper = () =&amp;gt {\n wait(4)\n return null\n}\n"
+        ],
+        "score": "const HiderWrapper = (props) =&amp;gt {\n const [visible, setVisible] = useState(false)\n useEffect(() =&amp;gt {\n   setTimeout(() =&amp;gt {\n     setVisible(true)\n   }, 4000)\n }, [])\n if (visible) return props.children\n else return null\n}"
+    },
+    {
+        "title": "Considering the code below, when will the MyChild component be unmounted? const MyParent = ({ value }) =&amp;gt {\n return &amp;ltdiv&amp;gt{value !== 3 &amp;amp&amp;amp &amp;ltMyChild /&amp;gt}&amp;lt/div&amp;gt\n}",
+        "ques_type": 2,
+        "options": [
+            "When the value property is equal to 3.",
+            "When the value property is different from 3.",
+            "Never.",
+            "After each render of the MyParent component."
+        ],
+        "score": "When the value property is equal to 3."
+    }
+]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -48,7 +85,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -56,30 +93,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -374,19 +393,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
